--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Signature.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Signature.xlsx
@@ -57,9 +57,6 @@
     <t>Connect Device with WIFI</t>
   </si>
   <si>
-    <t>Device &amp; Application-JS</t>
-  </si>
-  <si>
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
@@ -74,6 +71,69 @@
     <t>SignatureCapture Visible</t>
   </si>
   <si>
+    <t>SignatureCapture hidden</t>
+  </si>
+  <si>
+    <t>SignatureCapture with left</t>
+  </si>
+  <si>
+    <t>SignatureCapture with top</t>
+  </si>
+  <si>
+    <t>SignatureCapture with height</t>
+  </si>
+  <si>
+    <t>SignatureCapture with width</t>
+  </si>
+  <si>
+    <t>SignatureCapture with penwidth</t>
+  </si>
+  <si>
+    <t>SignatureCapture with penColor</t>
+  </si>
+  <si>
+    <t>SignatureCapture with Bgcolor</t>
+  </si>
+  <si>
+    <t>SignatureCapture with Clear</t>
+  </si>
+  <si>
+    <t>SignatureCapture with Capture</t>
+  </si>
+  <si>
+    <t>SignatureCapture with Name</t>
+  </si>
+  <si>
+    <t>SignatureCapture Destination(Filesystem)</t>
+  </si>
+  <si>
+    <t>SignatureCapture Destination(ftp)</t>
+  </si>
+  <si>
+    <t>SignatureCapture Destination(http)</t>
+  </si>
+  <si>
+    <t>SignatureCapture Destination(url)</t>
+  </si>
+  <si>
+    <t>Vectortransfer Event</t>
+  </si>
+  <si>
+    <t>signatureSaveEvent of JSON Object type</t>
+  </si>
+  <si>
+    <t>Vectortransfer Event with JSON Object type</t>
+  </si>
+  <si>
+    <t>signatureCaptureEvent and display the signature</t>
+  </si>
+  <si>
+    <t>signatureCaptureEvent with http URL</t>
+  </si>
+  <si>
+    <t>signatureCaptureEvent and signatureSaveEvent with HTTP</t>
+  </si>
+  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=RE 2.2 Tests
@@ -89,14 +149,27 @@
 validate4
 {
 validate_isIconDisplayed=signatureArea_xpath,true
-}
+};
 </t>
   </si>
   <si>
-    <t>SignatureCapture hidden</t>
-  </si>
-  <si>
-    <t>SignatureCapture with left</t>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Signature
+};
+validate3
+{
+validate_Text_Exists=VT187-0816
+};
+validate4
+{
+validate_isIconDisplayed=signatureArea_xpath,false
+};
+</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -115,11 +188,8 @@
 {
 validate_isIconDisplayed=signatureArea_xpath,true
 validate_Iconposition=signatureArea_xpath,left,20
-}
+};
 </t>
-  </si>
-  <si>
-    <t>SignatureCapture with top</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -138,36 +208,11 @@
 {
 validate_isIconDisplayed=signatureArea_xpath,true
 validate_Iconposition=signatureArea_xpath,top,20
-}
+};
 </t>
   </si>
   <si>
-    <t>SignatureCapture with height</t>
-  </si>
-  <si>
-    <t>SignatureCapture with width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Signature
-};
-validate3
-{
-validate_Text_Exists=VT187-0816
-};
-validate4
-{
-validate_isIconDisplayed=signatureArea_xpath,false
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -183,8 +228,7 @@
 {
 validate_isIconDisplayed=signatureArea_xpath,true
 validate_Iconposition=signatureArea_xpath,height,100
-}
-</t>
+};</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -203,13 +247,10 @@
 {
 validate_isIconDisplayed=signatureArea_xpath,true
 validate_Iconposition=signatureArea_xpath,width,200
-}
+};
 </t>
   </si>
   <si>
-    <t>SignatureCapture with penwidth</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=RE 2.2 Tests
@@ -225,13 +266,10 @@
 validate4
 {
 validate_Screenshot=VT187_0837
-}
+};
 </t>
   </si>
   <si>
-    <t>SignatureCapture with penColor</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=RE 2.2 Tests
@@ -247,11 +285,26 @@
 validate4
 {
 validate_Screenshot=VT187_0844
-}
+};
 </t>
   </si>
   <si>
-    <t>SignatureCapture with Bgcolor</t>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Signature
+};
+validate3
+{
+validate_Text_Exists=VT187-0849
+};
+validate4
+{
+validate_Screenshot=VT187_0849
+};</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -264,21 +317,15 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0849
+validate_Text_Exists=VT187-0853
 };
 validate4
 {
-validate_Screenshot=VT187_0849
-}
+validate_FileExists=/sdcard/Android/data/com.symbol.enterprisebrowser/Signature.bmp
+};
 </t>
   </si>
   <si>
-    <t>SignatureCapture with Clear</t>
-  </si>
-  <si>
-    <t>SignatureCapture with Capture</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=RE 2.2 Tests
@@ -294,21 +341,15 @@
 validate4
 {
 validate_Screenshot=VT187_0852_before
-}
+};
 validate5
 {
 validate_Screenshot=VT187_0852_after
-}
+};
 </t>
   </si>
   <si>
-    <t>SignatureCapture with Name</t>
-  </si>
-  <si>
-    <t>SignatureCapture Destination(Filesystem)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -318,16 +359,16 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0853
+validate_Text_Exists=VT187-2718
 };
 validate4
 {
-validate_FileExists=/sdcard/Android/data/com.symbol.enterprisebrowser/Signature.bmp
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+validate_Result=FileSent
+validate_Screenshot=VT187_2718
+};</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -337,16 +378,15 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0856
+validate_Text_Exists=VT187-2713
 };
 validate4
 {
-validate_FileExists=/sdcard/Android/data/com.symbol.enterprisebrowser/Motorola.bmp
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+validate_Screenshot=VT187_2713
+};</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -356,20 +396,15 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0873
+validate_Text_Exists=VT187-2708
 };
 validate4
 {
-validate_Result=OK
-validate_Result=File Moved
-}
-</t>
-  </si>
-  <si>
-    <t>SignatureCapture Destination(ftp)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+validate_PageTitle=Navigation Check
+};</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -379,32 +414,15 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0878
+validate_Text_Exists=VT187-2706
 };
 validate4
 {
-validate_Result=OK
-validate_Result=File Sent
-}
-</t>
-  </si>
-  <si>
-    <t>SignatureCapture Destination(http)</t>
-  </si>
-  <si>
-    <t>SignatureCapture Destination(url)</t>
-  </si>
-  <si>
-    <t>Vectortransfer Event</t>
-  </si>
-  <si>
-    <t>signatureSaveEvent of JSON Object type</t>
-  </si>
-  <si>
-    <t>Vectortransfer Event with JSON Object type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
+validate_Screenshot=VT187_2706
+};</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -414,53 +432,14 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0879
-};
-validate4
-{
-validate_Result=FileSent
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Signature
-};
-validate3
-{
-validate_Text_Exists=VT187-0880
-};
-validate4
-{
-validate_PageTitle=Navigation Check
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Signature
-};
-validate3
-{
-validate_Text_Exists=VT187-0882
+validate_Text_Exists=VT187-0888
 };
 validate4
 {
 validate_Result=0x
 validate_Result=X
 validate_Result=Y
-}
-</t>
+};</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -479,7 +458,7 @@
 {
 validate_Result=OK
 validate_Result=File Sent
-}
+};
 </t>
   </si>
   <si>
@@ -493,26 +472,17 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-0888
+validate_Text_Exists=VT187-0882
 };
 validate4
 {
 validate_Result=0x
 validate_Result=X
 validate_Result=Y
-}
+};
 </t>
   </si>
   <si>
-    <t>signatureCaptureEvent and display the signature</t>
-  </si>
-  <si>
-    <t>signatureCaptureEvent with http URL</t>
-  </si>
-  <si>
-    <t>signatureCaptureEvent and signatureSaveEvent with HTTP</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=RE 2.2 Tests
@@ -523,12 +493,12 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-2706
+validate_Text_Exists=VT187-0880
 };
 validate4
 {
-validate_Screenshot=VT187_2706
-}
+validate_PageTitle=Navigation Check
+};
 </t>
   </si>
   <si>
@@ -542,15 +512,34 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-2708
+validate_Text_Exists=VT187-0879
 };
 validate4
 {
-validate_PageTitle=Navigation Check
-}
+validate_Result=FileSent
+};
 </t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Signature
+};
+validate3
+{
+validate_Text_Exists=VT187-0878
+};
+validate4
+{
+validate_Result=OK
+validate_Result=File Sent
+};</t>
+  </si>
+  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=RE 2.2 Tests
@@ -561,16 +550,17 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-2713
+validate_Text_Exists=VT187-0873
 };
 validate4
 {
-validate_Screenshot=VT187_2713
-}
+validate_Result=OK
+validate_Result=File Moved
+};
 </t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
+    <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
@@ -580,19 +570,20 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-2718
+validate_Text_Exists=VT187-0856
 };
 validate4
 {
-validate_Result=FileSent
-validate_Screenshot=VT187_2718
-}
-</t>
-  </si>
-  <si>
-    <t>wait(2);
+validate_FileExists=/sdcard/Android/data/com.symbol.enterprisebrowser/Motorola.bmp
+};</t>
+  </si>
+  <si>
+    <t>RE22Signature-JS</t>
+  </si>
+  <si>
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0815_string);
@@ -601,9 +592,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0816_string);
@@ -612,9 +603,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0821_string);
@@ -623,9 +614,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0823_string);
@@ -634,9 +625,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0829_string);
@@ -645,9 +636,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0830_string);
@@ -656,9 +647,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0837_string);
@@ -676,9 +667,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0844_string);
@@ -695,9 +686,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0849_string);
@@ -707,9 +698,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0852_string);
@@ -729,9 +720,9 @@
 validate5;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0853_string);
@@ -742,9 +733,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0856_string);
@@ -755,9 +746,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0873_string);
@@ -768,9 +759,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0878_string);
@@ -781,9 +772,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0879_string);
@@ -794,9 +785,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0880_string);
@@ -807,9 +798,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0882_string);
@@ -825,9 +816,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0887_string);
@@ -838,9 +829,9 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0888_string);
@@ -856,9 +847,9 @@
 validate4;</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(2);
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_2706_string);
@@ -867,13 +858,12 @@
 wait(2);
 ClickRunTest(captureButton_xpath);
 TakeScreenshot(VT187_2706);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_2708_string);
@@ -887,13 +877,13 @@
 SwitchApp(WEBVIEW);
 wait(2);
 ClickRunTest(captureButton_xpath);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
+wait(4);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_2713_string);
@@ -908,13 +898,12 @@
 wait(2);
 ClickRunTest(captureButton_xpath);
 TakeScreenshot(VT187_2713);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(4);
 validate1;
-link_Click(Signature22_test_link);
+link_Click(signature_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_2718_string);
@@ -1473,17 +1462,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1504,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1513,13 +1502,13 @@
         <v>60</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="243" thickBot="1">
+    <row r="4" spans="1:11" ht="230.25" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1531,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1540,13 +1529,13 @@
         <v>61</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="268.5" thickBot="1">
+    <row r="5" spans="1:11" ht="255.75" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1558,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1567,7 +1556,7 @@
         <v>62</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1585,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1594,13 +1583,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="268.5" thickBot="1">
+    <row r="7" spans="1:11" ht="243" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1612,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1621,7 +1610,7 @@
         <v>64</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1639,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1648,7 +1637,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1666,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1675,13 +1664,13 @@
         <v>66</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="230.25" thickBot="1">
+    <row r="10" spans="1:11" ht="217.5" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1693,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1702,13 +1691,13 @@
         <v>67</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="230.25" thickBot="1">
+    <row r="11" spans="1:11" ht="204.75" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1720,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1729,7 +1718,7 @@
         <v>68</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1747,7 +1736,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1756,7 +1745,7 @@
         <v>69</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1774,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1783,13 +1772,13 @@
         <v>70</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="268.5" thickBot="1">
+    <row r="14" spans="1:11" ht="230.25" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1801,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1810,13 +1799,13 @@
         <v>71</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="255.75" thickBot="1">
+    <row r="15" spans="1:11" ht="230.25" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1828,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1837,13 +1826,13 @@
         <v>72</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="255.75" thickBot="1">
+    <row r="16" spans="1:11" ht="217.5" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1855,7 +1844,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1864,13 +1853,13 @@
         <v>73</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="243" thickBot="1">
+    <row r="17" spans="1:11" ht="230.25" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1882,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1891,13 +1880,13 @@
         <v>74</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="243" thickBot="1">
+    <row r="18" spans="1:11" ht="230.25" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1909,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1918,13 +1907,13 @@
         <v>75</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="268.5" thickBot="1">
+    <row r="19" spans="1:11" ht="255.75" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1936,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1945,13 +1934,13 @@
         <v>76</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="255.75" thickBot="1">
+    <row r="20" spans="1:11" ht="230.25" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1963,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1972,13 +1961,13 @@
         <v>77</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="268.5" thickBot="1">
+    <row r="21" spans="1:11" ht="230.25" thickBot="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1990,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1999,13 +1988,13 @@
         <v>78</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="243" thickBot="1">
+    <row r="22" spans="1:11" ht="204.75" thickBot="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2017,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2026,13 +2015,13 @@
         <v>79</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="243" thickBot="1">
+    <row r="23" spans="1:11" ht="230.25" thickBot="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2044,7 +2033,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2053,13 +2042,13 @@
         <v>80</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="255.75" thickBot="1">
+    <row r="24" spans="1:11" ht="230.25" thickBot="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2071,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2080,13 +2069,13 @@
         <v>81</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="255.75" thickBot="1">
+    <row r="25" spans="1:11" ht="243" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2098,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2107,7 +2096,7 @@
         <v>82</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Signature.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Signature.xlsx
@@ -751,11 +751,150 @@
 link_Click(signature_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT187_0873_string);
+SelectTestToRun(VT187_0882_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
 wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+DrawSignature(signatureArea_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0887_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
 ClickRunTest(captureButton_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0888_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+DrawSignature(signatureArea_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2706_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+ClickRunTest(captureButton_xpath);
+TakeScreenshot(VT187_2706);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2708_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+DrawSignature(signatureArea_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+ClickRunTest(captureButton_xpath);
+wait(4);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2713_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+DrawSignature(signatureArea_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+ClickRunTest(captureButton_xpath);
+TakeScreenshot(VT187_2713);
+validate4;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_2718_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+wait(2);
+DrawSignature(signatureArea_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+ClickRunTest(captureButton_xpath);
+TakeScreenshot(VT187_2718);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0879_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+ClickRunTest(captureButton_xpath);
+wait(12);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0880_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+ClickRunTest(captureButton_xpath);
+wait(12);
 validate4;</t>
   </si>
   <si>
@@ -769,6 +908,7 @@
 ClickRunTest(runtest_top_xpath);
 wait(2);
 ClickRunTest(captureButton_xpath);
+wait(12);
 validate4;</t>
   </si>
   <si>
@@ -777,149 +917,13 @@
 link_Click(signature_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT187_0879_string);
+SelectTestToRun(VT187_0873_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
 wait(2);
 ClickRunTest(captureButton_xpath);
+wait(12);
 validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0880_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-ClickRunTest(captureButton_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0882_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-DrawSignature(signatureArea_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0887_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-ClickRunTest(captureButton_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0888_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-DrawSignature(signatureArea_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_2706_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-ClickRunTest(captureButton_xpath);
-TakeScreenshot(VT187_2706);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_2708_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-DrawSignature(signatureArea_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-ClickRunTest(captureButton_xpath);
-wait(4);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_2713_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-DrawSignature(signatureArea_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-ClickRunTest(captureButton_xpath);
-TakeScreenshot(VT187_2713);
-validate4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_2718_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-wait(2);
-DrawSignature(signatureArea_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-ClickRunTest(captureButton_xpath);
-TakeScreenshot(VT187_2718);
-validate4;
-</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1823,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>57</v>
@@ -1850,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>56</v>
@@ -1877,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>55</v>
@@ -1904,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>54</v>
@@ -1931,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>53</v>
@@ -1958,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>52</v>
@@ -1985,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>51</v>
@@ -2012,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>50</v>
@@ -2039,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>49</v>
@@ -2066,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>48</v>
@@ -2093,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>47</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Signature.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Signature.xlsx
@@ -359,25 +359,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT187-2718
-};
-validate4
-{
-validate_Result=FileSent
-validate_Screenshot=VT187_2718
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Signature
-};
-validate3
-{
 validate_Text_Exists=VT187-2713
 };
 validate4
@@ -769,19 +750,6 @@
 link_Click(signature_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT187_0887_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-ClickRunTest(captureButton_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
 SelectTestToRun(VT187_0888_string);
 validate3;
 ClickRunTest(runtest_top_xpath);
@@ -849,7 +817,77 @@
 validate4;</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(4);
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0879_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+ClickRunTest(captureButton_xpath);
+wait(12);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0880_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+ClickRunTest(captureButton_xpath);
+wait(12);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0878_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+ClickRunTest(captureButton_xpath);
+wait(12);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0873_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+ClickRunTest(captureButton_xpath);
+wait(12);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
+validate1;
+link_Click(signature_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0887_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+ClickRunTest(captureButton_xpath);
+wait(10);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(4);
 validate1;
 link_Click(signature_test_link);
 wait(2);
@@ -865,65 +903,26 @@
 SwitchApp(WEBVIEW);
 wait(2);
 ClickRunTest(captureButton_xpath);
-TakeScreenshot(VT187_2718);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0879_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-ClickRunTest(captureButton_xpath);
-wait(12);
+wait(10);
 validate4;</t>
   </si>
   <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0880_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-ClickRunTest(captureButton_xpath);
-wait(12);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0878_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-ClickRunTest(captureButton_xpath);
-wait(12);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(4);
-validate1;
-link_Click(signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0873_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-ClickRunTest(captureButton_xpath);
-wait(12);
-validate4;</t>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Signature
+};
+validate3
+{
+validate_Text_Exists=VT187-2718
+};
+validate4
+{
+validate_Result=FileSent
+};</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1412,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1468,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1505,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>36</v>
@@ -1532,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>37</v>
@@ -1559,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>38</v>
@@ -1586,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>39</v>
@@ -1613,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>40</v>
@@ -1640,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>41</v>
@@ -1667,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>42</v>
@@ -1694,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>43</v>
@@ -1721,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>44</v>
@@ -1748,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>46</v>
@@ -1775,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>45</v>
@@ -1802,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1829,10 +1828,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1856,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1883,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1910,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1937,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1964,10 +1963,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1991,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2018,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2045,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2072,16 +2071,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="243" thickBot="1">
+    <row r="25" spans="1:11" ht="230.25" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2099,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
